--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Value_RSA/1.6/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Value_RSA/1.6/accreditamento-checklist_V8.1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_Value\1.6\RSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_Value_RSA\1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C247EC-79F3-49C1-BB9E-0AE0B96C0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C995B-DDED-4D0B-947A-8D101E0B17A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="307">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -910,6 +910,423 @@
   <si>
     <t>Il test non è applicabile in quanto i signature codes nell'applicativo sono codificati in una enumeration e non posso essere inseriti codici diversi da quelli prestabiliti.</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>La sezione DICOM Object Catalog non è completa in quanto il sistema non ha accesso a tutto l'aggregato Study-&gt;Series-&gt;SOP Intences. La sezione "Precedenti esami eseguiti" non è completa in quanto l'utente non può selezionare gli esami precedenti eseguiti inerenti la refertazione corrente.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene sollevato un errore relativo alla validazione del token JWT in quanto vengono omessi tutti gli identificativi del paziente compreso il codice fiscale che invece è mandatorio per la validazione del token JWT. Il test è stato modificato come richiesto da Irene Stacchiotti: "Buongiorno Marco, grazie per la segnalazione. Le chiediamo cortesemente di modificare il caso di test utilizzando il campo confidentialityCode invece del patientRole/id. Seguirà una versione aggiornata della documentazione. Grazie mille."</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il test non è supportato in quanto per l'utente non è possibile indicare quali precedenti esami eseguiti hanno contribuito alla formulazione del referto. L'utente può vederli ma non può selezionarli ai fini di quanto richiesto in questo contesto.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il test non è supportato in quanto l'applicazione non ha accesso a tutto l'aggregato DICOM relativo allo studio in refertazione. Questo dato è dominio del PACS.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il test non può essere completamente validato in quanto l'applicazione non gestisce le codifiche LOINC relative al quesito diagnostico.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>14dd1d299f30cb56</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:24.333Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.e118bf2074^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>716409fa0318a0a3</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:25.928Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.1aad0f1d52^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>00a20fb774aef928</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:28:54.918Z[UTC]</t>
+  </si>
+  <si>
+    <t>6b70cba001fb3521</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:23.338Z[UTC]</t>
+  </si>
+  <si>
+    <t>4b0c265489612f0d</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:28:57.685Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.a91139e8d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8de67b4e466c6f05</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:00.346Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.eebb3a6028^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c52c19413cfca9c0</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:03.128Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.cff429fead^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c8f83d8326578890</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:05.514Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.f196e0432f^^^^urn:ihe:iti:xdw:2013:workflowInstanceIdId</t>
+  </si>
+  <si>
+    <t>29eec884bdb577c6</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:08.564Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.6ce519a6ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>95aa19fad2488267</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:11Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.10924d27ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>06f8b8485104c943</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:13.548Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.63f11dceac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>24fb524919e8da1e</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:15.987Z[UTC</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.df0f67e157^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0942d206237f6aa7</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:18.577Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.90d02c838d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>31a8640db1607ddf</t>
+  </si>
+  <si>
+    <t>2024-02-20T13:29:21.043Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.b7998bb921^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
@@ -918,7 +1335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +1393,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -997,7 +1422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1233,11 +1658,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,6 +1768,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1346,12 +1794,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3813,21 +4293,23 @@
   <dimension ref="A1:T652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="52.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="5" max="5" width="139.28515625" customWidth="1"/>
     <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="9" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
     <col min="11" max="11" width="52.5703125" customWidth="1"/>
     <col min="12" max="12" width="50.42578125" customWidth="1"/>
@@ -3858,12 +4340,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3881,14 +4363,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3906,12 +4388,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3930,12 +4412,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3953,8 +4435,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4096,7 +4578,7 @@
       <c r="H10" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="34" t="s">
         <v>166</v>
       </c>
       <c r="J10" s="25" t="s">
@@ -4180,8 +4662,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="270" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>164</v>
+      <c r="A12" s="20">
+        <v>48</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>43</v>
@@ -4261,21 +4743,11 @@
         <v>59</v>
       </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>164</v>
-      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="26"/>
       <c r="S13" s="27"/>
@@ -4299,9 +4771,7 @@
       <c r="E14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -4339,9 +4809,7 @@
       <c r="E15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -4379,9 +4847,7 @@
       <c r="E16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -4419,9 +4885,7 @@
       <c r="E17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4431,10 +4895,10 @@
       <c r="K17" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -4947,9 +5411,7 @@
       <c r="E27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4960,7 +5422,9 @@
         <v>205</v>
       </c>
       <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="M27" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
@@ -4987,9 +5451,7 @@
       <c r="E28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5000,7 +5462,9 @@
         <v>206</v>
       </c>
       <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="M28" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -5027,9 +5491,7 @@
       <c r="E29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5040,7 +5502,9 @@
         <v>207</v>
       </c>
       <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="M29" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
@@ -5067,9 +5531,7 @@
       <c r="E30" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5080,7 +5542,9 @@
         <v>208</v>
       </c>
       <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="M30" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -5107,9 +5571,7 @@
       <c r="E31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5120,7 +5582,9 @@
         <v>208</v>
       </c>
       <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="M31" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -5147,9 +5611,7 @@
       <c r="E32" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5160,7 +5622,9 @@
         <v>208</v>
       </c>
       <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="M32" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -5187,9 +5651,7 @@
       <c r="E33" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5200,7 +5662,9 @@
         <v>208</v>
       </c>
       <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
@@ -5227,9 +5691,7 @@
       <c r="E34" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5240,7 +5702,9 @@
         <v>208</v>
       </c>
       <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="M34" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
@@ -5251,7 +5715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="168.75" customHeight="1">
+    <row r="35" spans="1:20" ht="168.75" customHeight="1" thickBot="1">
       <c r="A35" s="20">
         <v>169</v>
       </c>
@@ -5267,9 +5731,7 @@
       <c r="E35" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="23">
-        <v>45338</v>
-      </c>
+      <c r="F35" s="23"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5280,7 +5742,9 @@
         <v>209</v>
       </c>
       <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="M35" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
@@ -5291,449 +5755,1231 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="15"/>
-    </row>
-    <row r="37" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="15"/>
-    </row>
-    <row r="38" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="15"/>
-    </row>
-    <row r="39" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="15"/>
-    </row>
-    <row r="40" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="15"/>
-    </row>
-    <row r="41" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="15"/>
-    </row>
-    <row r="42" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="15"/>
-    </row>
-    <row r="43" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="15"/>
-    </row>
-    <row r="44" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="15"/>
-    </row>
-    <row r="45" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="15"/>
-    </row>
-    <row r="46" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="15"/>
-    </row>
-    <row r="47" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="15"/>
-    </row>
-    <row r="48" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="15"/>
-    </row>
-    <row r="49" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="15"/>
-    </row>
-    <row r="50" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="15"/>
-    </row>
-    <row r="51" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="15"/>
-    </row>
-    <row r="52" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="15"/>
-    </row>
-    <row r="53" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="15"/>
-    </row>
-    <row r="54" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="15"/>
-    </row>
-    <row r="55" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="15"/>
-    </row>
-    <row r="56" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="15"/>
-    </row>
-    <row r="57" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="15"/>
-    </row>
-    <row r="58" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="15"/>
-    </row>
-    <row r="59" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="15"/>
-    </row>
-    <row r="60" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="15"/>
-    </row>
-    <row r="61" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="15"/>
-    </row>
-    <row r="62" spans="6:20" ht="14.25" customHeight="1">
+    <row r="36" spans="1:20" s="55" customFormat="1" ht="223.5" customHeight="1" thickBot="1">
+      <c r="A36" s="47">
+        <v>11</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="55" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A37" s="47">
+        <v>12</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="55" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A38" s="47">
+        <v>13</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="55" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A39" s="47">
+        <v>14</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="55" customFormat="1" ht="255.75" thickBot="1">
+      <c r="A40" s="47">
+        <v>31</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="55" customFormat="1" ht="255.75" thickBot="1">
+      <c r="A41" s="47">
+        <v>39</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="55" customFormat="1" ht="255.75" thickBot="1">
+      <c r="A42" s="47">
+        <v>47</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="53"/>
+      <c r="T42" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="55" customFormat="1" ht="390.75" thickBot="1">
+      <c r="A43" s="47">
+        <v>75</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="T43" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A44" s="47">
+        <v>76</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A45" s="47">
+        <v>77</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A46" s="47">
+        <v>78</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A47" s="47">
+        <v>79</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A48" s="47">
+        <v>80</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A49" s="47">
+        <v>81</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A50" s="47">
+        <v>82</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I50" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A51" s="47">
+        <v>83</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O51" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="55" customFormat="1" ht="285.75" thickBot="1">
+      <c r="A52" s="47">
+        <v>84</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="55" customFormat="1" ht="90.75" thickBot="1">
+      <c r="A53" s="47">
+        <v>85</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="55" customFormat="1" ht="90.75" thickBot="1">
+      <c r="A54" s="47">
+        <v>86</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="55" customFormat="1" ht="105.75" thickBot="1">
+      <c r="A55" s="47">
+        <v>87</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="55" customFormat="1" ht="120.75" thickBot="1">
+      <c r="A56" s="47">
+        <v>88</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="55" customFormat="1" ht="105.75" thickBot="1">
+      <c r="A57" s="47">
+        <v>89</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="55" customFormat="1" ht="105.75" thickBot="1">
+      <c r="A58" s="47">
+        <v>90</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="55" customFormat="1" ht="120.75" thickBot="1">
+      <c r="A59" s="47">
+        <v>91</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="55" customFormat="1" ht="120.75" thickBot="1">
+      <c r="A60" s="47">
+        <v>92</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="55" customFormat="1" ht="285">
+      <c r="A61" s="47">
+        <v>93</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="50">
+        <v>45342</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="I61" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M61" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O61" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.25" customHeight="1">
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -5750,7 +6996,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="15"/>
     </row>
-    <row r="63" spans="6:20" ht="14.25" customHeight="1">
+    <row r="63" spans="1:20" ht="14.25" customHeight="1">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -5767,7 +7013,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="6:20" ht="14.25" customHeight="1">
+    <row r="64" spans="1:20" ht="14.25" customHeight="1">
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
